--- a/11_集計表.xlsx
+++ b/11_集計表.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>市場調査アンケート</t>
     <rPh sb="0" eb="4">
@@ -166,6 +167,60 @@
   </si>
   <si>
     <t xml:space="preserve"> 'D6/$D$13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>←列）変化</t>
+    <rPh sb="1" eb="2">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>行）固定</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>列）固定</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>行）変化</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[p.32]相対参照と絶対参照</t>
+    <rPh sb="6" eb="10">
+      <t>ソウタイサンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ゼッタイサンショウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -229,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -358,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,68 +438,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -724,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -735,68 +802,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>45130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:13" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="18"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>1002</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>1223</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>B6+C6</f>
         <v>2225</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <f>D6/$D13</f>
         <v>0.11216413772243787</v>
       </c>
@@ -809,17 +876,17 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>138</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>166</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <f t="shared" ref="D7:D12" si="0">B7+C7</f>
         <v>304</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <f t="shared" ref="E7:E13" si="1">D7/D$13</f>
         <v>1.532489791803196E-2</v>
       </c>
@@ -829,17 +896,17 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>1494</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>1577</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <f t="shared" si="1"/>
         <v>0.15481171548117154</v>
       </c>
@@ -848,17 +915,17 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>3571</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>3746</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>7317</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>0.36885617784947322</v>
       </c>
@@ -867,17 +934,17 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1468</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>1094</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>2562</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <f t="shared" si="1"/>
         <v>0.12915259363815093</v>
       </c>
@@ -886,17 +953,17 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>1812</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>1927</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>3739</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <f t="shared" si="1"/>
         <v>0.1884861622221102</v>
       </c>
@@ -905,39 +972,39 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>427</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>192</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <f t="shared" si="1"/>
         <v>3.1204315168624288E-2</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <f>SUM(B6:B12)</f>
         <v>9912</v>
       </c>
-      <c r="C13" s="19">
-        <f t="shared" ref="C13:E13" si="2">SUM(C6:C12)</f>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:D13" si="2">SUM(C6:C12)</f>
         <v>9925</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>19837</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -996,4 +1063,444 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5</v>
+      </c>
+      <c r="H2" s="28">
+        <v>6</v>
+      </c>
+      <c r="I2" s="28">
+        <v>7</v>
+      </c>
+      <c r="J2" s="28">
+        <v>8</v>
+      </c>
+      <c r="K2" s="28">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <f>$B3*C$2</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <f t="shared" ref="D3:G3" si="0">$B3*D$2</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>$B3*H$2</f>
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="D3:K11" si="1">$B3*I$2</f>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="2">$B4*C$2</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="28">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="28">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="28">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="28">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="28">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="28">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="28">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>